--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C54488-EA18-481B-B340-1F30756EE216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68315B1-0EC9-4AEE-BB26-010017C055DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Projektabschnitt 1: Aufgaben als Text.txt speichern und Recherche</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 1: Text.txt speichern und lesen, Abschlusstest</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -664,30 +667,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2372,7 +2351,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:O27"/>
+      <selection activeCell="A29" sqref="A29:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2541,7 @@
       <c r="P8" s="41">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="75"/>
+      <c r="Q8" s="69"/>
       <c r="R8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2593,7 @@
       <c r="P10" s="41">
         <v>0.75</v>
       </c>
-      <c r="Q10" s="75"/>
+      <c r="Q10" s="69"/>
       <c r="R10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +2995,9 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -3031,9 +3012,13 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="11"/>
+      <c r="P27" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
@@ -3071,8 +3056,8 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="20"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3091,8 +3076,8 @@
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="70"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3111,8 +3096,8 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,8 +3116,8 @@
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="70"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="30"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,8 +3136,8 @@
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="72"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
       <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,7 +3424,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>15.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACF41F-5B3A-4B80-9735-903037D9252E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CF78B-8D9B-4684-AA70-C46F9D0EBE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2369,7 +2369,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36:Q36"/>
+      <selection activeCell="A36" sqref="A36:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,9 +3228,13 @@
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
-      <c r="P35" s="29"/>
+      <c r="P35" s="29">
+        <v>1.5</v>
+      </c>
       <c r="Q35" s="30"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -3476,7 +3480,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>19.899999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CF78B-8D9B-4684-AA70-C46F9D0EBE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CB4DC-8B13-440F-89DA-BF6D7ACDB88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>Projektabschnitt 2: Testdatenbank</t>
   </si>
   <si>
-    <t>Projektantragsgespräch</t>
+    <t>Projektantragsgespräch: Rücksprache, genehmigt, Unterzeichnen, Absenden</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2369,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:O36"/>
+      <selection activeCell="P36" sqref="P36:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CD285-DD36-4085-B2CE-3BA3B13B47E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDCED97-DA6E-4839-89B0-36A8BF40152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Projektantragsgespräch: Rücksprache, genehmigt, Unterzeichnen, Absenden</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 2: Planung Datenbank</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A45" sqref="A45:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2372,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:O37"/>
+      <selection activeCell="P37" sqref="P37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3266,9 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDCED97-DA6E-4839-89B0-36A8BF40152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D0586-64B8-473B-A48F-4A154D29353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -155,7 +155,7 @@
     <t>Projektantragsgespräch: Rücksprache, genehmigt, Unterzeichnen, Absenden</t>
   </si>
   <si>
-    <t>Projektabschnitt 2: Planung Datenbank</t>
+    <t>Projektabschnitt 2: Planung Datenbank, realisierung eigene Klasse, import main</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2372,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37:Q37"/>
+      <selection activeCell="A38" sqref="A38:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,9 +3283,13 @@
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
-      <c r="P37" s="57"/>
+      <c r="P37" s="57">
+        <v>1.5</v>
+      </c>
       <c r="Q37" s="58"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -3489,7 +3493,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="67">
         <f>SUM(P7:R46)</f>
-        <v>22.4</v>
+        <v>23.9</v>
       </c>
       <c r="Q47" s="67"/>
       <c r="R47" s="68"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D0586-64B8-473B-A48F-4A154D29353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820CA55F-976A-4D25-94BD-FF008CBCA81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Projektabschnitt 2: Planung Datenbank, realisierung eigene Klasse, import main</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 2: Zugriff auf Datenbank</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2375,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:O38"/>
+      <selection activeCell="P39" sqref="P39:Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3295,9 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="41" t="s">
+        <v>40</v>
+      </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -3312,7 +3317,9 @@
       <c r="R38" s="8"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820CA55F-976A-4D25-94BD-FF008CBCA81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986C11D-F06F-4C79-A44C-BD90D6E4115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -158,7 +158,10 @@
     <t>Projektabschnitt 2: Planung Datenbank, realisierung eigene Klasse, import main</t>
   </si>
   <si>
-    <t>Projektabschnitt 2: Zugriff auf Datenbank</t>
+    <t>Projektabschnitt 2: Zugriff auf Datenbank, Nutzername abfrage und erstellen</t>
+  </si>
+  <si>
+    <t>GitHub: Merging, Projektplan aktuell halten, aktualisierungen</t>
   </si>
 </sst>
 </file>
@@ -2374,8 +2377,8 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39:Q39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2670,7 @@
       <c r="N12" s="37"/>
       <c r="O12" s="38"/>
       <c r="P12" s="46">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q12" s="47"/>
       <c r="R12" s="14" t="s">
@@ -3312,9 +3315,13 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="59"/>
+      <c r="P38" s="59">
+        <v>1.25</v>
+      </c>
       <c r="Q38" s="60"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
@@ -3334,12 +3341,18 @@
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="57"/>
+      <c r="P39" s="57">
+        <v>0.75</v>
+      </c>
       <c r="Q39" s="58"/>
-      <c r="R39" s="7"/>
+      <c r="R39" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="41" t="s">
+        <v>11</v>
+      </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -3354,12 +3367,18 @@
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="59"/>
+      <c r="P40" s="59">
+        <v>0.25</v>
+      </c>
       <c r="Q40" s="60"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -3374,9 +3393,13 @@
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
-      <c r="P41" s="57"/>
+      <c r="P41" s="57">
+        <v>0.25</v>
+      </c>
       <c r="Q41" s="58"/>
-      <c r="R41" s="7"/>
+      <c r="R41" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
@@ -3500,7 +3523,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="67">
         <f>SUM(P7:R46)</f>
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="Q47" s="67"/>
       <c r="R47" s="68"/>
